--- a/app/excel/4_2.xlsx
+++ b/app/excel/4_2.xlsx
@@ -409,7 +409,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
